--- a/Instances/03_Normal.xlsx
+++ b/Instances/03_Normal.xlsx
@@ -9,8 +9,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Generic" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Requirement" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Productdata" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForecastedAverageDemand" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForcastedStandardDeviation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -502,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1614,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>11.94</v>
+        <v>13.46</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1643,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>20.61</v>
+        <v>28.26</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1672,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>10.2</v>
+        <v>12.79</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1701,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>9.390000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1730,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>21.34</v>
+        <v>21.46</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1759,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>39.11</v>
+        <v>29.23</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1788,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>28.52</v>
+        <v>20.74</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1817,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>22.48</v>
+        <v>18.72</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1846,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>27.58</v>
+        <v>25.12</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1875,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>67.7</v>
+        <v>66.64</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1904,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>309</v>
+        <v>544</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>49.05</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1933,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>36.57</v>
+        <v>34.53</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1962,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>427</v>
+        <v>347</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>51.32</v>
+        <v>45.23</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1991,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>29.93</v>
+        <v>27.23</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2020,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>22.8</v>
+        <v>22.29</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2049,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>23.88</v>
+        <v>21.62</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2078,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>34.89</v>
+        <v>28.68</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -2105,6 +2107,1270 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>70</v>
+      </c>
+      <c r="C2" t="n">
+        <v>126</v>
+      </c>
+      <c r="D2" t="n">
+        <v>57</v>
+      </c>
+      <c r="E2" t="n">
+        <v>46</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>70</v>
+      </c>
+      <c r="C3" t="n">
+        <v>126</v>
+      </c>
+      <c r="D3" t="n">
+        <v>57</v>
+      </c>
+      <c r="E3" t="n">
+        <v>46</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>70</v>
+      </c>
+      <c r="C4" t="n">
+        <v>126</v>
+      </c>
+      <c r="D4" t="n">
+        <v>57</v>
+      </c>
+      <c r="E4" t="n">
+        <v>46</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>70</v>
+      </c>
+      <c r="C5" t="n">
+        <v>126</v>
+      </c>
+      <c r="D5" t="n">
+        <v>57</v>
+      </c>
+      <c r="E5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>70</v>
+      </c>
+      <c r="C6" t="n">
+        <v>126</v>
+      </c>
+      <c r="D6" t="n">
+        <v>57</v>
+      </c>
+      <c r="E6" t="n">
+        <v>46</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>70</v>
+      </c>
+      <c r="C7" t="n">
+        <v>126</v>
+      </c>
+      <c r="D7" t="n">
+        <v>57</v>
+      </c>
+      <c r="E7" t="n">
+        <v>46</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>70</v>
+      </c>
+      <c r="C8" t="n">
+        <v>126</v>
+      </c>
+      <c r="D8" t="n">
+        <v>57</v>
+      </c>
+      <c r="E8" t="n">
+        <v>46</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>70</v>
+      </c>
+      <c r="C9" t="n">
+        <v>126</v>
+      </c>
+      <c r="D9" t="n">
+        <v>57</v>
+      </c>
+      <c r="E9" t="n">
+        <v>46</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>70</v>
+      </c>
+      <c r="C10" t="n">
+        <v>126</v>
+      </c>
+      <c r="D10" t="n">
+        <v>57</v>
+      </c>
+      <c r="E10" t="n">
+        <v>46</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>70</v>
+      </c>
+      <c r="C11" t="n">
+        <v>126</v>
+      </c>
+      <c r="D11" t="n">
+        <v>57</v>
+      </c>
+      <c r="E11" t="n">
+        <v>46</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>45</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>35</v>
+      </c>
+      <c r="C3" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>35</v>
+      </c>
+      <c r="C4" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>45</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>35</v>
+      </c>
+      <c r="C5" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>35</v>
+      </c>
+      <c r="C6" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>45</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>35</v>
+      </c>
+      <c r="C7" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>45</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>45</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>35</v>
+      </c>
+      <c r="C9" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>45</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>35</v>
+      </c>
+      <c r="C10" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>45</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>35</v>
+      </c>
+      <c r="C11" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>45</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2128,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>504</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2136,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>226.8</v>
+        <v>907.2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2144,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>513</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2152,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>248.4</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2160,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>453.6</v>
+        <v>226.8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2168,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>311.4</v>
+        <v>1245.6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2176,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>680.4</v>
+        <v>226.8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2184,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>185.4</v>
+        <v>556.2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2192,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>453.6</v>
+        <v>907.2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2200,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>538.2</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2208,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1076.4</v>
+        <v>1614.6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2216,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>622.8000000000001</v>
+        <v>311.4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2232,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>453.6</v>
+        <v>907.2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2240,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>226.8</v>
+        <v>907.2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2256,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>934.2</v>
+        <v>1557</v>
       </c>
     </row>
   </sheetData>
@@ -2264,7 +3530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2336,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2395,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2454,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2513,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2572,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2631,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2690,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2749,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2808,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -2867,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2926,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2985,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3103,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -3162,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -3280,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_Normal.xlsx
+++ b/Instances/03_Normal.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>13.46</v>
+        <v>0.06</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>28.26</v>
+        <v>0.09</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>12.79</v>
+        <v>0.05</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>7.8</v>
+        <v>0.03</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>21.46</v>
+        <v>0.09</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>217</v>
+        <v>305</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>29.23</v>
+        <v>0.12</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>20.74</v>
+        <v>0.11</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>18.72</v>
+        <v>0.09</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>25.12</v>
+        <v>0.08</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>570</v>
+        <v>485</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>66.64</v>
+        <v>0.25</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>544</v>
+        <v>304</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>68.84999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>205</v>
+        <v>304</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>34.53</v>
+        <v>0.16</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>347</v>
+        <v>449</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>45.23</v>
+        <v>0.17</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>27.23</v>
+        <v>0.09</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>22.29</v>
+        <v>0.1</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>21.62</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>28.68</v>
+        <v>0.12</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>252</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>907.2</v>
+        <v>680.4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>102.6</v>
+        <v>307.8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>414</v>
+        <v>331.2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>226.8</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1245.6</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>556.2</v>
+        <v>741.6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>907.2</v>
+        <v>680.4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2691</v>
+        <v>538.2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>412.2</v>
+        <v>1648.8</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>907.2</v>
+        <v>453.6</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>

--- a/Instances/03_Normal.xlsx
+++ b/Instances/03_Normal.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06</v>
+        <v>130.0307962759199</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>225</v>
+        <v>113</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09</v>
+        <v>494.0964245367175</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05</v>
+        <v>168.5308149820641</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03</v>
+        <v>185.3330371794507</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09</v>
+        <v>275.155797960927</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>305</v>
+        <v>196</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.12</v>
+        <v>281.8015717642994</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>0.11</v>
+        <v>395.2472628594569</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09</v>
+        <v>370.0561365538717</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08</v>
+        <v>93.65775458090673</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>485</v>
+        <v>310</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>0.25</v>
+        <v>141.7958728235832</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2</v>
+        <v>103.4940514270831</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>304</v>
+        <v>148</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>0.16</v>
+        <v>161.6779358449702</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>449</v>
+        <v>206</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.17</v>
+        <v>301.8895048127007</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>223</v>
+        <v>123</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09</v>
+        <v>249.2100272648469</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1</v>
+        <v>156.8567596104038</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07000000000000001</v>
+        <v>105.1121187827254</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.12</v>
+        <v>283.8425002274689</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>504</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>307.8</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>331.2</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1134</v>
+        <v>453.6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1557</v>
+        <v>622.8000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>741.6</v>
+        <v>370.8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>680.4</v>
+        <v>226.8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>538.2</v>
+        <v>2152.8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1614.6</v>
+        <v>2152.8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1648.8</v>
+        <v>824.4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>907.2</v>
+        <v>226.8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>453.6</v>
+        <v>680.4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>927</v>
+        <v>556.2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>

--- a/Instances/03_Normal.xlsx
+++ b/Instances/03_Normal.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>130.0307962759199</v>
+        <v>10.68990991021934</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>494.0964245367175</v>
+        <v>25.32521962816942</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>168.5308149820641</v>
+        <v>14.05493119498946</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>185.3330371794507</v>
+        <v>9.937511075823165</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>275.155797960927</v>
+        <v>13.57162151702528</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>281.8015717642994</v>
+        <v>19.72798508769232</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>395.2472628594569</v>
+        <v>22.98111143176219</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>370.0561365538717</v>
+        <v>20.78256983630289</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>93.65775458090673</v>
+        <v>6.422525845220241</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>310</v>
+        <v>444</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>141.7958728235832</v>
+        <v>9.166021019219972</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>310</v>
+        <v>424</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>103.4940514270831</v>
+        <v>7.052522707616849</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>148</v>
+        <v>256</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>161.6779358449702</v>
+        <v>10.43457599905069</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>206</v>
+        <v>291</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>301.8895048127007</v>
+        <v>19.30285374636717</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>249.2100272648469</v>
+        <v>17.59809741986309</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>156.8567596104038</v>
+        <v>9.547937025531148</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>105.1121187827254</v>
+        <v>8.972151729374616</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>283.8425002274689</v>
+        <v>16.7683989315931</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>252</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>680.4</v>
+        <v>907.2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>513</v>
+        <v>307.8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>453.6</v>
+        <v>907.2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>622.8000000000001</v>
+        <v>1245.6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>226.8</v>
+        <v>453.6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>370.8</v>
+        <v>741.6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>226.8</v>
+        <v>453.6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2152.8</v>
+        <v>538.2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2152.8</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>311.4</v>
+        <v>622.8000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>824.4</v>
+        <v>412.2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>226.8</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>556.2</v>
+        <v>370.8</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1557</v>
+        <v>934.2</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_Normal.xlsx
+++ b/Instances/03_Normal.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>10.68990991021934</v>
+        <v>9.327921143888338</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>25.32521962816942</v>
+        <v>25.23370790738598</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>14.05493119498946</v>
+        <v>11.89850119809733</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>9.937511075823165</v>
+        <v>8.739365784375074</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>13.57162151702528</v>
+        <v>14.33383527103085</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>205</v>
+        <v>283</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>19.72798508769232</v>
+        <v>17.54763487955865</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>22.98111143176219</v>
+        <v>27.25907943172182</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>20.78256983630289</v>
+        <v>23.44321822685095</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>6.422525845220241</v>
+        <v>7.475098429179344</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>444</v>
+        <v>520</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>9.166021019219972</v>
+        <v>9.286887932474405</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>424</v>
+        <v>520</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>7.052522707616849</v>
+        <v>6.577221252630156</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>10.43457599905069</v>
+        <v>9.954683034883404</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>291</v>
+        <v>421</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>19.30285374636717</v>
+        <v>16.53286213945179</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>17.59809741986309</v>
+        <v>16.54763096262684</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>162</v>
+        <v>237</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>9.547937025531148</v>
+        <v>8.199225303443752</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>8.972151729374616</v>
+        <v>8.973105794000601</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>16.7683989315931</v>
+        <v>20.27047517013358</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>126</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>907.2</v>
+        <v>226.8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>307.8</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>907.2</v>
+        <v>453.6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1245.6</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>453.6</v>
+        <v>907.2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>741.6</v>
+        <v>370.8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>538.2</v>
+        <v>1076.4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2691</v>
+        <v>2152.8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>622.8000000000001</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>412.2</v>
+        <v>1236.6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>370.8</v>
+        <v>556.2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>934.2</v>
+        <v>1245.6</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_Normal.xlsx
+++ b/Instances/03_Normal.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>9.327921143888338</v>
+        <v>64.39258778080047</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>25.23370790738598</v>
+        <v>175.8233879533165</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>11.89850119809733</v>
+        <v>93.4752060876266</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>8.739365784375074</v>
+        <v>91.22676380785308</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>14.33383527103085</v>
+        <v>133.2091362893489</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>17.54763487955865</v>
+        <v>181.2618270480427</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>27.25907943172182</v>
+        <v>191.9450256680362</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>23.44321822685095</v>
+        <v>139.5403615474911</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>7.475098429179344</v>
+        <v>55.9927738901546</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>520</v>
+        <v>572</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>9.286887932474405</v>
+        <v>73.8552210890654</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>520</v>
+        <v>572</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>6.577221252630156</v>
+        <v>53.76164230845419</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>9.954683034883404</v>
+        <v>70.60322517744524</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>16.53286213945179</v>
+        <v>149.3859486149707</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>16.54763096262684</v>
+        <v>98.55320339609104</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>8.199225303443752</v>
+        <v>86.40085390633284</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>8.973105794000601</v>
+        <v>70.27820753754231</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>20.27047517013358</v>
+        <v>145.1014283402195</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>226.8</v>
+        <v>453.6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>513</v>
+        <v>307.8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>414</v>
+        <v>248.4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>453.6</v>
+        <v>226.8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1557</v>
+        <v>1245.6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>907.2</v>
+        <v>680.4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>370.8</v>
+        <v>185.4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>453.6</v>
+        <v>907.2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1076.4</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2152.8</v>
+        <v>1614.6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1557</v>
+        <v>1245.6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1236.6</v>
+        <v>1648.8</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1134</v>
+        <v>907.2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>680.4</v>
+        <v>226.8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>556.2</v>
+        <v>741.6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1245.6</v>
+        <v>934.2</v>
       </c>
     </row>
   </sheetData>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_Normal.xlsx
+++ b/Instances/03_Normal.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>106</v>
+        <v>344</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>64.39258778080047</v>
+        <v>86.625</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>263</v>
+        <v>886</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>175.8233879533165</v>
+        <v>232.6401</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>110</v>
+        <v>368</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>93.4752060876266</v>
+        <v>106.7553</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>92</v>
+        <v>311</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>91.22676380785308</v>
+        <v>87.92117999999999</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>133.2091362893489</v>
+        <v>136.08</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>181.2618270480427</v>
+        <v>182.9475</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>191.9450256680362</v>
+        <v>224.1351</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>139.5403615474911</v>
+        <v>181.3212</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>55.9927738901546</v>
+        <v>62.37</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>73.8552210890654</v>
+        <v>80.73000000000002</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>53.76164230845419</v>
+        <v>53.82000000000001</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>70.60322517744524</v>
+        <v>85.63500000000001</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>149.3859486149707</v>
+        <v>154.575</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>98.55320339609104</v>
+        <v>136.08</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>86.40085390633284</v>
+        <v>85.22010000000002</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>70.27820753754231</v>
+        <v>69.6177</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>145.1014283402195</v>
+        <v>182.9475</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>252</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>453.6</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>307.8</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>248.4</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>226.8</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1245.6</v>
+        <v>8650</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>680.4</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>185.4</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>907.2</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2691</v>
+        <v>8970</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1614.6</v>
+        <v>11960</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1245.6</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1648.8</v>
+        <v>6870</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>907.2</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>226.8</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>741.6</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>934.2</v>
+        <v>6920</v>
       </c>
     </row>
   </sheetData>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_Normal.xlsx
+++ b/Instances/03_Normal.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>344</v>
+        <v>236</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>86.625</v>
+        <v>46.2</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>886</v>
+        <v>478</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>232.6401</v>
+        <v>124.07472</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>368</v>
+        <v>209</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>106.7553</v>
+        <v>56.93616000000001</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>311</v>
+        <v>172</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>87.92117999999999</v>
+        <v>46.891296</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>136.08</v>
+        <v>72.57600000000001</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>182.9475</v>
+        <v>97.572</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1796,7 +1796,7 @@
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>224.1351</v>
+        <v>119.53872</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1825,7 +1825,7 @@
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>181.3212</v>
+        <v>96.70464</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1854,7 +1854,7 @@
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>62.37</v>
+        <v>33.264</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1883,7 +1883,7 @@
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>80.73000000000002</v>
+        <v>43.05600000000001</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1912,7 +1912,7 @@
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>53.82000000000001</v>
+        <v>28.704</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1941,7 +1941,7 @@
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>85.63500000000001</v>
+        <v>45.672</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>154.575</v>
+        <v>82.44000000000001</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1999,7 +1999,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>136.08</v>
+        <v>72.57600000000001</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2028,7 +2028,7 @@
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>85.22010000000002</v>
+        <v>45.45072000000001</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2057,7 +2057,7 @@
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>69.6177</v>
+        <v>37.12944</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2086,7 +2086,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>182.9475</v>
+        <v>97.572</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1400</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2520</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>570</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1840</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6300</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8650</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5040</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2060</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1260</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11960</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3460</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6870</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2520</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6920</v>
+        <v>3460</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
